--- a/mappings/4_Kress_Documents_ImportMapping.xlsx
+++ b/mappings/4_Kress_Documents_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CA619-5BB4-7644-BCCB-1F414457EDA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2010C-B76B-EB4F-9EB1-9CF5D33D2481}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39160" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35860" yWindow="5100" windowWidth="28040" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>Mapping</t>
   </si>
@@ -443,6 +443,18 @@
 "formatWithTemplate":"^7-^8",
 "skipIfValue": "undated"}</t>
   </si>
+  <si>
+    <t>ca_occurrences.Doc_Photographer</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>monitor Art Object type</t>
+  </si>
+  <si>
+    <t>some records importing as 2020, 2021, etc. but that appears to be in their data</t>
+  </si>
 </sst>
 </file>
 
@@ -524,7 +536,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,13 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,30 +621,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,14 +865,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
@@ -965,7 +985,7 @@
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1064,16 +1084,18 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
+      <c r="A6" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1098,25 +1120,24 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1137,22 +1158,24 @@
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="24">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="34" t="s">
+        <v>138</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1170,7 +1193,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8">
@@ -1183,12 +1206,14 @@
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1219,7 +1244,7 @@
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1255,7 +1280,7 @@
       <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1278,13 +1303,13 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="27" t="s">
         <v>133</v>
       </c>
       <c r="L12" s="12"/>
@@ -1440,16 +1465,18 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="24">
         <v>17</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="19"/>
@@ -1474,7 +1501,7 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8">
@@ -1805,7 +1832,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>93</v>
@@ -1880,7 +1907,7 @@
       <c r="B30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="2" t="s">

--- a/mappings/4_Kress_Documents_ImportMapping.xlsx
+++ b/mappings/4_Kress_Documents_ImportMapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Documents/GitHub/NGA-Kress/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2010C-B76B-EB4F-9EB1-9CF5D33D2481}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2030894-6DBE-104C-AA0D-DCCEB301D09A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="5100" windowWidth="28040" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
   <si>
     <t>Mapping</t>
   </si>
@@ -449,12 +449,6 @@
   <si>
     <t>media</t>
   </si>
-  <si>
-    <t>monitor Art Object type</t>
-  </si>
-  <si>
-    <t>some records importing as 2020, 2021, etc. but that appears to be in their data</t>
-  </si>
 </sst>
 </file>
 
@@ -536,7 +530,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,12 +549,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -574,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -643,9 +631,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -865,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1173,9 +1158,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="34" t="s">
-        <v>138</v>
-      </c>
+      <c r="K8" s="28"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1211,9 +1194,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="34" t="s">
-        <v>137</v>
-      </c>
+      <c r="K9" s="28"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
